--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT097-001 - Akuntansi - Transaksi - IDTD - Dep Break - Cek Jurnal Break Deposito.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT097-001 - Akuntansi - Transaksi - IDTD - Dep Break - Cek Jurnal Break Deposito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FDC36B-0A8D-4E7E-A8CE-1C004B872620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDB086B-66EC-4090-BC52-1D020D77EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,9 +632,6 @@
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="75">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
